--- a/notebooks/simulation/sim_results/summary_success_rate_000_train.xlsx
+++ b/notebooks/simulation/sim_results/summary_success_rate_000_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,67 +565,67 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3970588235294117</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4606741573033708</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4837209302325581</v>
+        <v>0.9629629629629628</v>
       </c>
       <c r="P2" t="n">
-        <v>0.468407750631845</v>
+        <v>0.936026936026936</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4716981132075472</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.9230769230769232</v>
       </c>
     </row>
     <row r="3">
@@ -643,67 +643,67 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.375</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.3555555555555556</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1875</v>
-      </c>
       <c r="H3" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4719101123595505</v>
+        <v>0.9333333333333331</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3645833333333333</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4232558139534884</v>
+        <v>0.8425925925925926</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4271272114574558</v>
+        <v>0.8535353535353536</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.44</v>
+        <v>0.88</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5294117647058824</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3207547169811321</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="4">
@@ -721,67 +721,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9411764705882352</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.925925925925926</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.8585858585858586</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4210526315789473</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.449438202247191</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.4651162790697675</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.4296545914069081</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.25</v>
-      </c>
       <c r="U4" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.9230769230769232</v>
       </c>
     </row>
     <row r="5">
@@ -790,76 +790,76 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>flowbot</t>
+          <t>hisditonly</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sgp</t>
+          <t>raw</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4375</v>
+        <v>0.125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4852941176470588</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4606741573033709</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="N5" t="n">
-        <v>0.46875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4837209302325582</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4911541701769167</v>
+        <v>0.8468013468013467</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="R5" t="n">
         <v>0.5</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="T5" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="6">
@@ -868,7 +868,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dit</t>
+          <t>flowbot</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -877,67 +877,67 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4583333333333333</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F6" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.125</v>
+        <v>0.875</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4558823529411764</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="J6" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9111111111111113</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.9629629629629631</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9814814814814816</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" t="n">
-        <v>0.4606741573033709</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.4479166666666667</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.4697674418604651</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.4650379106992419</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.25</v>
-      </c>
       <c r="U6" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2641509433962264</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4615384615384616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -946,7 +946,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pndit</t>
+          <t>dit</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -955,67 +955,67 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6249999999999999</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.5</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.375</v>
-      </c>
       <c r="G7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9117647058823528</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9111111111111113</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.9351851851851852</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.9292929292929295</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.4269662921348314</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.3854166666666667</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.4790697674418604</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.4507160909856783</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.25</v>
-      </c>
       <c r="U7" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3018867924528302</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5</v>
+        <v>0.9230769230769232</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>hisdit</t>
+          <t>pndit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1033,67 +1033,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4583333333333333</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4888888888888889</v>
+        <v>0.875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.49438202247191</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4883720930232558</v>
+        <v>0.9537037037037036</v>
       </c>
       <c r="P8" t="n">
-        <v>0.489469250210615</v>
+        <v>0.9006734006734008</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4705882352941176</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0.5</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4150943396226415</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pnhisdit</t>
+          <t>hisdit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1111,52 +1111,52 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9411764705882352</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9777777777777776</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.9583333333333334</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.9558823529411765</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.9550561797752809</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.96875</v>
-      </c>
       <c r="O9" t="n">
-        <v>0.9674418604651163</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9839932603201348</v>
+        <v>0.9781144781144782</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="X9" t="n">
         <v>1</v>
@@ -1178,70 +1178,226 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pnhisdit</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9537037037037036</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.988215488215488</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>hisditonly</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9333333333333331</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9537037037037036</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9208754208754208</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
         <v>24</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>34</v>
+      </c>
+      <c r="I12" t="n">
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" t="n">
         <v>45</v>
       </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" t="n">
-        <v>16</v>
-      </c>
-      <c r="H10" t="n">
-        <v>68</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38</v>
-      </c>
-      <c r="J10" t="n">
-        <v>14</v>
-      </c>
-      <c r="K10" t="n">
-        <v>89</v>
-      </c>
-      <c r="L10" t="n">
-        <v>36</v>
-      </c>
-      <c r="M10" t="n">
-        <v>30</v>
-      </c>
-      <c r="N10" t="n">
-        <v>96</v>
-      </c>
-      <c r="O10" t="n">
-        <v>215</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1187</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>50</v>
-      </c>
-      <c r="R10" t="n">
-        <v>10</v>
-      </c>
-      <c r="S10" t="n">
-        <v>17</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4</v>
-      </c>
-      <c r="U10" t="n">
-        <v>22</v>
-      </c>
-      <c r="V10" t="n">
-        <v>56</v>
-      </c>
-      <c r="W10" t="n">
-        <v>53</v>
-      </c>
-      <c r="X10" t="n">
-        <v>26</v>
+      <c r="L12" t="n">
+        <v>18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>19</v>
+      </c>
+      <c r="N12" t="n">
+        <v>48</v>
+      </c>
+      <c r="O12" t="n">
+        <v>108</v>
+      </c>
+      <c r="P12" t="n">
+        <v>594</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>9</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>11</v>
+      </c>
+      <c r="V12" t="n">
+        <v>28</v>
+      </c>
+      <c r="W12" t="n">
+        <v>27</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/simulation/sim_results/summary_success_rate_000_train.xlsx
+++ b/notebooks/simulation/sim_results/summary_success_rate_000_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
         <v>0.7894736842105263</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="K2" t="n">
         <v>0.9111111111111111</v>
@@ -661,7 +661,7 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
         <v>0.9333333333333331</v>
@@ -739,7 +739,7 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="K4" t="n">
         <v>0.8888888888888888</v>
@@ -817,7 +817,7 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="K5" t="n">
         <v>0.8666666666666667</v>
@@ -895,7 +895,7 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.9555555555555556</v>
@@ -946,19 +946,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>flowbot</t>
+          <t>flowbotallopen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sgp</t>
+          <t>raw</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -967,55 +967,55 @@
         <v>0.875</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9111111111111113</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="M7" t="n">
-        <v>0.65</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9375</v>
+        <v>0.5</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9629629629629631</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9814814814814816</v>
+        <v>0.8383838383838383</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="T7" t="n">
         <v>0.5</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dit</t>
+          <t>flowbot</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1033,49 +1033,49 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6249999999999999</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.25</v>
+        <v>0.875</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9117647058823528</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K8" t="n">
         <v>0.9111111111111113</v>
       </c>
       <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9629629629629631</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.9814814814814816</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.8333333333333334</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.8958333333333334</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.9351851851851852</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.9292929292929295</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="S8" t="n">
         <v>0.8888888888888888</v>
@@ -1084,16 +1084,16 @@
         <v>0.5</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9230769230769232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pndit</t>
+          <t>dit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1111,67 +1111,67 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.875</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9411764705882352</v>
+        <v>0.9117647058823528</v>
       </c>
       <c r="I9" t="n">
         <v>0.9473684210526315</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.9111111111111113</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M9" t="n">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9537037037037036</v>
+        <v>0.9351851851851852</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9006734006734008</v>
+        <v>0.9292929292929295</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="T9" t="n">
         <v>0.5</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0.9230769230769232</v>
       </c>
     </row>
     <row r="10">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>hisdit</t>
+          <t>pndit</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G10" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0.9411764705882352</v>
@@ -1207,37 +1207,37 @@
         <v>0.9473684210526315</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9777777777777776</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9537037037037036</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9781144781144782</v>
+        <v>0.9006734006734008</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U10" t="n">
         <v>0.9090909090909091</v>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="X10" t="n">
         <v>1</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pnhisdit</t>
+          <t>hisdit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1267,52 +1267,52 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.9777777777777776</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9537037037037036</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="P11" t="n">
-        <v>0.988215488215488</v>
+        <v>0.9781144781144782</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>hisditonly</t>
+          <t>pnhisdit</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1345,67 +1345,67 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0.9705882352941176</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9333333333333331</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.875</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="O12" t="n">
         <v>0.9537037037037036</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9208754208754208</v>
+        <v>0.988215488215488</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0.9090909090909091</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9642857142857143</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="X12" t="n">
-        <v>0.6153846153846154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hisonly</t>
+          <t>hisditonly</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1423,64 +1423,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E13" t="n">
         <v>0.7083333333333334</v>
       </c>
       <c r="F13" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="n">
         <v>0.125</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9111111111111113</v>
+        <v>0.9333333333333331</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9537037037037036</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9208754208754208</v>
       </c>
       <c r="Q13" t="n">
         <v>0.96</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="W13" t="n">
-        <v>0.4814814814814814</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="X13" t="n">
         <v>0.6153846153846154</v>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hispndit01only1</t>
+          <t>hisonly</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1504,46 +1504,46 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9333333333333331</v>
+        <v>0.9111111111111113</v>
       </c>
       <c r="L14" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="M14" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="P14" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1552,16 +1552,16 @@
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.4814814814814814</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="15">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>hispndit01only2</t>
+          <t>pndit&amp;pn++</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1582,46 +1582,46 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0.9705882352941176</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9333333333333331</v>
+        <v>0.9111111111111113</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9583333333333335</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="O15" t="n">
         <v>0.9814814814814816</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9646464646464646</v>
+        <v>0.9713804713804713</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1630,85 +1630,553 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="X15" t="n">
-        <v>0.9230769230769232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>dit&amp;pn++</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9333333333333331</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.9713804713804713</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>largedit&amp;pn++</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9333333333333331</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.9208754208754208</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>flowbotallopen</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.9814814814814816</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.9158249158249157</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>pndit&amp;pn++allopen&gt;005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>dit&amp;pn++allopen&gt;01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>hispnditckpt299</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
         <v>12</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E22" t="n">
         <v>24</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F22" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G22" t="n">
         <v>8</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>34</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>19</v>
       </c>
-      <c r="J16" t="n">
-        <v>7</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
         <v>45</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>18</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M22" t="n">
         <v>20</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N22" t="n">
         <v>48</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O22" t="n">
         <v>108</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P22" t="n">
         <v>594</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q22" t="n">
         <v>25</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R22" t="n">
         <v>6</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S22" t="n">
         <v>9</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T22" t="n">
         <v>2</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U22" t="n">
         <v>11</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V22" t="n">
         <v>28</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W22" t="n">
         <v>27</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X22" t="n">
         <v>13</v>
       </c>
     </row>

--- a/notebooks/simulation/sim_results/summary_success_rate_000_train.xlsx
+++ b/notebooks/simulation/sim_results/summary_success_rate_000_train.xlsx
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>hispnditckpt299</t>
+          <t>hispnditFilter</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/notebooks/simulation/sim_results/summary_success_rate_000_train.xlsx
+++ b/notebooks/simulation/sim_results/summary_success_rate_000_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,6 +1096,474 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hispnditFilrepeat5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sgp+cc</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pnditrepeat5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sgp+cc</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>hispnditFilrepeat5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sgp+cc+hf</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hispnditFilrepeat5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sgp+hf</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sgp+hf</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
